--- a/biology/Médecine/Hyclate/Hyclate.xlsx
+++ b/biology/Médecine/Hyclate/Hyclate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyclate est synonyme de monohydrochlorure hémiéthanolate hémihydrate c'est-à-dire intégrant dans la formule chimique d'un composé ▪(HCl)▪(
               1
@@ -490,9 +502,9 @@
               1
               2
     {\displaystyle {\tfrac {1}{2}}}
-(H2O)[1].
+(H2O).
 Il est utilisé dans les dénominations communes internationales (DCI) de médicaments adoptées par un comité de professionnels de la santé et de fabricants de médicaments.
-On retrouve ce terme dans l'hyclate de doxycycline, un antibiotique de la classe des cyclines, dénomination commune internationale de Vibramycin et Vibra-Tabs au Canada[2] et de Doxy Gé, Doxycycline Biogaran, Doxycycline Gnr, Doxycycline Arrow, Doxycycline Sandoz, Spanor Gé et Vibraveineuse en France[3].
+On retrouve ce terme dans l'hyclate de doxycycline, un antibiotique de la classe des cyclines, dénomination commune internationale de Vibramycin et Vibra-Tabs au Canada et de Doxy Gé, Doxycycline Biogaran, Doxycycline Gnr, Doxycycline Arrow, Doxycycline Sandoz, Spanor Gé et Vibraveineuse en France.
 </t>
         </is>
       </c>
